--- a/Python/pokemon_data_file.xlsx
+++ b/Python/pokemon_data_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Interview Based Assesement\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8C391-AB18-4BE0-B60A-AF0752BDD074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4136BC8-26CD-4C37-AF50-F0230B36CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3623,7 +3623,7 @@
   <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
